--- a/medicine/Médecine vétérinaire/Virbac/Virbac.xlsx
+++ b/medicine/Médecine vétérinaire/Virbac/Virbac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Virbac est une entreprise française de santé animale fondée en 1968 à Carros, près de Nice, par les docteurs vétérinaires Max Rombi et Pierre-Richard Dick.
-La société est le 6e groupe pharmaceutique vétérinaire mondial avec un chiffre d’affaires de 938 millions d’euros en 2020[3]. L’entreprise est une société anonyme à conseil d'administration et direction générale. Elle est cotée à la Bourse de Paris depuis 1985. 
+La société est le 6e groupe pharmaceutique vétérinaire mondial avec un chiffre d’affaires de 938 millions d’euros en 2020. L’entreprise est une société anonyme à conseil d'administration et direction générale. Elle est cotée à la Bourse de Paris depuis 1985. 
 Ce laboratoire pharmaceutique dispose d’une gamme de vaccins et de médicaments permettant la prévention et le traitement des principales pathologies des animaux de compagnie et d’élevage.
 La société est cotée en bourse Euronext Paris - Compartiment A et fait partie des indices de référence : SBF 120 et éligible SRD, PEA et PEA-PME.
 </t>
@@ -515,10 +527,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En avril 2006, Virbac acquiert les activités de santé animale de la multinationale britannique GlaxoSmithKline, nommée Agrivet Farm Care[4].
-En janvier 2015, Virbac finalise l'acquisition de deux produits antiparasitaires pour 410 millions d'euros auprès de Eli Lilly, qui avait acquis les activités vétérinaires de Novartis[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 2006, Virbac acquiert les activités de santé animale de la multinationale britannique GlaxoSmithKline, nommée Agrivet Farm Care.
+En janvier 2015, Virbac finalise l'acquisition de deux produits antiparasitaires pour 410 millions d'euros auprès de Eli Lilly, qui avait acquis les activités vétérinaires de Novartis.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’entreprise compte 4 900 salariés en étant présente dans plus de 100 pays avec 33 filiales commerciales. Elle réalise près de 88 % de son chiffre d’affaires hors de France. Elle dispose également de sept centres de recherche et développement localisés aux États-Unis, au Mexique, au Chili, en Uruguay, en France, au Vietnam et en Australie.
 Sa gamme de produits vise à couvrir les principales pathologies des animaux de compagnie et des animaux de production : antiparasitaires internes et externes (colliers et pipettes), antibiotiques, vaccins, tests diagnostic, nutrition chien et chat, dermatologie, hygiène dentaire, reproduction, aquaculture, anesthésie, gériatrie et identification électronique (animaux de compagnie, équidés, NAC…).
@@ -579,7 +595,9 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Actionnariat famille du fondateur : 49,7%
 Actionnariat public : 50,3%
